--- a/Design/specs/Language.xlsx
+++ b/Design/specs/Language.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>剑气纵横</t>
     <rPh sb="0" eb="1">
@@ -343,7 +343,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>context</t>
+    <t>Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <rPh sb="0" eb="1">
+      <t>nei'rong</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -667,10 +686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -685,102 +704,118 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>10000</v>
-      </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>10001</v>
+      <c r="A4" t="s">
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>10002</v>
+        <v>10000</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>10003</v>
+        <v>10001</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>10004</v>
+        <v>10002</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>10005</v>
+        <v>10003</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>20000</v>
+        <v>10004</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>20001</v>
+        <v>10005</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>20002</v>
+        <v>20000</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>20003</v>
+        <v>20001</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>20004</v>
+        <v>20002</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
+        <v>20003</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>20004</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>20005</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B16" t="s">
         <v>12</v>
       </c>
     </row>
